--- a/tablas.xlsx
+++ b/tablas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="102">
   <si>
     <t xml:space="preserve"> salesman_id </t>
   </si>
@@ -327,6 +327,9 @@
   </si>
   <si>
     <t>salesman</t>
+  </si>
+  <si>
+    <t>orders</t>
   </si>
 </sst>
 </file>
@@ -670,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -862,7 +865,7 @@
         <v>5002</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1035,7 +1038,7 @@
         <v>5002</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:8">

--- a/tablas.xlsx
+++ b/tablas.xlsx
@@ -1,30 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio Nava\Documents\GitHub\MiSQL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergionava/Documents/GitHub/MiSQL/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BAA8F8-406C-074B-9C68-96A0234A2521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15990" windowHeight="10725"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16000" windowHeight="10720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="salesman" sheetId="2" r:id="rId1"/>
+    <sheet name="customer" sheetId="3" r:id="rId2"/>
+    <sheet name="orders" sheetId="4" r:id="rId3"/>
+    <sheet name="company_mast" sheetId="5" r:id="rId4"/>
+    <sheet name="item_mast" sheetId="6" r:id="rId5"/>
+    <sheet name="emp_department" sheetId="7" r:id="rId6"/>
+    <sheet name="emp_details" sheetId="8" r:id="rId7"/>
+    <sheet name="hoja" sheetId="1" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="102">
   <si>
     <t xml:space="preserve"> salesman_id </t>
   </si>
@@ -134,12 +150,6 @@
     <t>salesman_id</t>
   </si>
   <si>
-    <t>COM_ID</t>
-  </si>
-  <si>
-    <t>COM_NAME</t>
-  </si>
-  <si>
     <t>Samsung</t>
   </si>
   <si>
@@ -158,18 +168,6 @@
     <t>Frontech</t>
   </si>
   <si>
-    <t>PRO_ID</t>
-  </si>
-  <si>
-    <t>PRO_NAME</t>
-  </si>
-  <si>
-    <t>PRO_PRICE</t>
-  </si>
-  <si>
-    <t>PRO_COM</t>
-  </si>
-  <si>
     <t>Mother Board</t>
   </si>
   <si>
@@ -200,15 +198,6 @@
     <t>Mouse</t>
   </si>
   <si>
-    <t>DPT_CODE</t>
-  </si>
-  <si>
-    <t>DPT_NAME</t>
-  </si>
-  <si>
-    <t>DPT_ALLOTMENT</t>
-  </si>
-  <si>
     <t>IT</t>
   </si>
   <si>
@@ -224,18 +213,6 @@
     <t>QC</t>
   </si>
   <si>
-    <t>EMP_IDNO</t>
-  </si>
-  <si>
-    <t>EMP_FNAME</t>
-  </si>
-  <si>
-    <t>EMP_LNAME</t>
-  </si>
-  <si>
-    <t>EMP_DEPT</t>
-  </si>
-  <si>
     <t>Michale</t>
   </si>
   <si>
@@ -330,13 +307,52 @@
   </si>
   <si>
     <t>orders</t>
+  </si>
+  <si>
+    <t>com_id</t>
+  </si>
+  <si>
+    <t>com_name</t>
+  </si>
+  <si>
+    <t>pro_id</t>
+  </si>
+  <si>
+    <t>pro_name</t>
+  </si>
+  <si>
+    <t>pro_price</t>
+  </si>
+  <si>
+    <t>pro_com</t>
+  </si>
+  <si>
+    <t>emp_idno</t>
+  </si>
+  <si>
+    <t>emp_fname</t>
+  </si>
+  <si>
+    <t>emp_lname</t>
+  </si>
+  <si>
+    <t>emp_dept</t>
+  </si>
+  <si>
+    <t>dpt_code</t>
+  </si>
+  <si>
+    <t>dpt_name</t>
+  </si>
+  <si>
+    <t>dpt_allotment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -670,16 +686,1065 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B6F961-8DB3-6F40-913A-DFE78D3750C3}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>5001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>5002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>5005</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>5006</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5007</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5003</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>0.12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA1CC9E-21BF-0543-B879-78728EB7866F}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>3002</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>3007</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>200</v>
+      </c>
+      <c r="E3">
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3005</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4">
+        <v>200</v>
+      </c>
+      <c r="E4">
+        <v>5002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3008</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>300</v>
+      </c>
+      <c r="E5">
+        <v>5002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>3004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>300</v>
+      </c>
+      <c r="E6">
+        <v>5006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>3009</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>3003</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8">
+        <v>200</v>
+      </c>
+      <c r="E8">
+        <v>5007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>3001</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9">
+        <v>5005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE312D7-9691-CA4C-91D6-BBE0544E69EA}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>70001</v>
+      </c>
+      <c r="B2">
+        <v>150.5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>41187</v>
+      </c>
+      <c r="D2">
+        <v>3005</v>
+      </c>
+      <c r="E2">
+        <v>5002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>70009</v>
+      </c>
+      <c r="B3">
+        <v>270.64999999999998</v>
+      </c>
+      <c r="C3" s="2">
+        <v>41162</v>
+      </c>
+      <c r="D3">
+        <v>3001</v>
+      </c>
+      <c r="E3">
+        <v>5005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>70002</v>
+      </c>
+      <c r="B4">
+        <v>65.260000000000005</v>
+      </c>
+      <c r="C4" s="2">
+        <v>41187</v>
+      </c>
+      <c r="D4">
+        <v>3002</v>
+      </c>
+      <c r="E4">
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>70004</v>
+      </c>
+      <c r="B5">
+        <v>110.5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>41138</v>
+      </c>
+      <c r="D5">
+        <v>3009</v>
+      </c>
+      <c r="E5">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>70007</v>
+      </c>
+      <c r="B6">
+        <v>948.5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>41162</v>
+      </c>
+      <c r="D6">
+        <v>3005</v>
+      </c>
+      <c r="E6">
+        <v>5002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>70005</v>
+      </c>
+      <c r="B7">
+        <v>2400.6</v>
+      </c>
+      <c r="C7" s="2">
+        <v>41117</v>
+      </c>
+      <c r="D7">
+        <v>3007</v>
+      </c>
+      <c r="E7">
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>70008</v>
+      </c>
+      <c r="B8">
+        <v>5760</v>
+      </c>
+      <c r="C8" s="2">
+        <v>41162</v>
+      </c>
+      <c r="D8">
+        <v>3002</v>
+      </c>
+      <c r="E8">
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>70010</v>
+      </c>
+      <c r="B9">
+        <v>1983.43</v>
+      </c>
+      <c r="C9" s="2">
+        <v>41192</v>
+      </c>
+      <c r="D9">
+        <v>3004</v>
+      </c>
+      <c r="E9">
+        <v>5006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>70003</v>
+      </c>
+      <c r="B10">
+        <v>2480.4</v>
+      </c>
+      <c r="C10" s="2">
+        <v>41192</v>
+      </c>
+      <c r="D10">
+        <v>3009</v>
+      </c>
+      <c r="E10">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>70012</v>
+      </c>
+      <c r="B11">
+        <v>250.45</v>
+      </c>
+      <c r="C11" s="2">
+        <v>41087</v>
+      </c>
+      <c r="D11">
+        <v>3008</v>
+      </c>
+      <c r="E11">
+        <v>5002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>70011</v>
+      </c>
+      <c r="B12">
+        <v>75.290000000000006</v>
+      </c>
+      <c r="C12" s="2">
+        <v>41138</v>
+      </c>
+      <c r="D12">
+        <v>3003</v>
+      </c>
+      <c r="E12">
+        <v>5007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>70013</v>
+      </c>
+      <c r="B13">
+        <v>3045.6</v>
+      </c>
+      <c r="C13" s="2">
+        <v>41024</v>
+      </c>
+      <c r="D13">
+        <v>3002</v>
+      </c>
+      <c r="E13">
+        <v>5001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74C6AE4F-E9A4-C64B-9EC5-1C1CF429D8C7}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F1FECF-6447-604A-B62F-F91211929B6D}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2">
+        <v>3200</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3">
+        <v>450</v>
+      </c>
+      <c r="D3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4">
+        <v>250</v>
+      </c>
+      <c r="D4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>104</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5">
+        <v>550</v>
+      </c>
+      <c r="D5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6">
+        <v>5000</v>
+      </c>
+      <c r="D6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>106</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7">
+        <v>900</v>
+      </c>
+      <c r="D7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>107</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8">
+        <v>800</v>
+      </c>
+      <c r="D8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>108</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9">
+        <v>2600</v>
+      </c>
+      <c r="D9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>109</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10">
+        <v>350</v>
+      </c>
+      <c r="D10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>110</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11">
+        <v>250</v>
+      </c>
+      <c r="D11">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF1D10E-32B3-9641-B3D8-7D0BB628DA84}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>89</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6">
+        <v>75000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D1E8F1-8D5B-1648-A127-9EC7CD3EC56E}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>127323</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>526689</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>843795</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>328717</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>444527</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>659831</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>847674</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>748681</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>555935</v>
+      </c>
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>539569</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>733843</v>
+      </c>
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>631548</v>
+      </c>
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>839139</v>
+      </c>
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:C42"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -693,7 +1758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>5001</v>
       </c>
@@ -707,7 +1772,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>5002</v>
       </c>
@@ -721,7 +1786,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>5005</v>
       </c>
@@ -735,10 +1800,10 @@
         <v>0.11</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>5006</v>
       </c>
@@ -752,7 +1817,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5007</v>
       </c>
@@ -766,7 +1831,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5003</v>
       </c>
@@ -780,7 +1845,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -797,7 +1862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>3002</v>
       </c>
@@ -814,7 +1879,7 @@
         <v>5001</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>3007</v>
       </c>
@@ -831,7 +1896,7 @@
         <v>5001</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>3005</v>
       </c>
@@ -848,7 +1913,7 @@
         <v>5002</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>3008</v>
       </c>
@@ -865,10 +1930,10 @@
         <v>5002</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>3004</v>
       </c>
@@ -885,7 +1950,7 @@
         <v>5006</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>3009</v>
       </c>
@@ -902,7 +1967,7 @@
         <v>5003</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>3003</v>
       </c>
@@ -919,7 +1984,7 @@
         <v>5007</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>3001</v>
       </c>
@@ -936,7 +2001,7 @@
         <v>5005</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -953,7 +2018,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>70001</v>
       </c>
@@ -970,7 +2035,7 @@
         <v>5002</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>70009</v>
       </c>
@@ -987,7 +2052,7 @@
         <v>5005</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>70002</v>
       </c>
@@ -1004,7 +2069,7 @@
         <v>5001</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>70004</v>
       </c>
@@ -1021,7 +2086,7 @@
         <v>5003</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>70007</v>
       </c>
@@ -1038,10 +2103,10 @@
         <v>5002</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>70005</v>
       </c>
@@ -1058,7 +2123,7 @@
         <v>5001</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>70008</v>
       </c>
@@ -1075,7 +2140,7 @@
         <v>5001</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>70010</v>
       </c>
@@ -1092,7 +2157,7 @@
         <v>5006</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>70003</v>
       </c>
@@ -1109,7 +2174,7 @@
         <v>5003</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>70012</v>
       </c>
@@ -1126,7 +2191,7 @@
         <v>5002</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>70011</v>
       </c>
@@ -1143,7 +2208,7 @@
         <v>5007</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>70013</v>
       </c>
@@ -1160,91 +2225,91 @@
         <v>5001</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B36" s="3" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="C36" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37">
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38">
         <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="16.5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39">
         <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40">
         <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41">
         <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42">
         <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="C44" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="D44" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>101</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C45">
         <v>3200</v>
@@ -1253,12 +2318,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>102</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C46">
         <v>450</v>
@@ -1267,12 +2332,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>103</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C47">
         <v>250</v>
@@ -1281,12 +2346,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>104</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C48">
         <v>550</v>
@@ -1295,12 +2360,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="16.5">
+    <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>105</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C49">
         <v>5000</v>
@@ -1309,15 +2374,15 @@
         <v>11</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>106</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C50">
         <v>900</v>
@@ -1326,12 +2391,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>107</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C51">
         <v>800</v>
@@ -1340,12 +2405,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>108</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C52">
         <v>2600</v>
@@ -1354,12 +2419,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>109</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C53">
         <v>350</v>
@@ -1368,12 +2433,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>110</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C54">
         <v>250</v>
@@ -1382,269 +2447,269 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="C56" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C57">
         <v>65000</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>63</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C58">
         <v>15000</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="16.5">
+    <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>47</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C59">
         <v>240000</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>27</v>
       </c>
       <c r="B60" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C60">
         <v>55000</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>89</v>
       </c>
       <c r="B61" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C61">
         <v>75000</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="B63" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="C63" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="D63" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>127323</v>
       </c>
       <c r="B64" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C64" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D64">
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>526689</v>
       </c>
       <c r="B65" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C65" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D65">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>843795</v>
       </c>
       <c r="B66" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C66" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D66">
         <v>57</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>328717</v>
       </c>
       <c r="B67" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C67" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D67">
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>444527</v>
       </c>
       <c r="B68" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C68" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D68">
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="16.5">
+    <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>659831</v>
       </c>
       <c r="B69" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C69" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D69">
         <v>47</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>847674</v>
       </c>
       <c r="B70" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C70" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D70">
         <v>57</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>748681</v>
       </c>
       <c r="B71" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D71">
         <v>47</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>555935</v>
       </c>
       <c r="B72" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C72" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D72">
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>539569</v>
       </c>
       <c r="B73" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D73">
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>733843</v>
       </c>
       <c r="B74" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D74">
         <v>63</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>631548</v>
       </c>
       <c r="B75" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D75">
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>839139</v>
       </c>
       <c r="B76" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C76" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D76">
         <v>57</v>
